--- a/01_hardware/RoboFly_BOM.xlsx
+++ b/01_hardware/RoboFly_BOM.xlsx
@@ -1,27 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0004_开源F1小四轴RoboFly\github\RoboFly\01_hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0004_开源F1小四轴RoboFly\PCB\RoboFly\RoboFly_release V1.1\Project Outputs for RoboFly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D819143D-765D-4C57-A290-CD43F557228D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4854DE-9575-43E9-8722-58086AC0C8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7AF82E5A-5990-4F56-A803-C7A2EE6975C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="RoboFlyBOM" sheetId="1" r:id="rId1"/>
+    <sheet name="RoboFly" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">RoboFlyBOM!$A$1:$H$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">RoboFly!$A$1:$H$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -249,9 +257,6 @@
     <t>SWD</t>
   </si>
   <si>
-    <t>HT7750SA</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -429,96 +434,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>配货数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色</t>
+  </si>
+  <si>
+    <t>绿色</t>
+  </si>
+  <si>
+    <t>4.7uH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3, C4, C7, C8, C10, C11,
+ C12, C13,C14, C15, C16, C17, 
+C23, C33, C35, C36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1, P2, P3, P4, P5, P6,
+ P7, P8, P9, P10, P11, P12,
+ P13, P14, P15, P16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQFP-48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QFN-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGA-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-23-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOD-123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3225_4P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBM320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F103C8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoboFly开源四轴BOM表-小马哥(交流群：829018006)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝印662K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XT1861B502MR-G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝印AXMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">备注：
-1、包16中增加了22uf电容；
+1、包16中增加了22uf电容,建议焊接时给C1处贴22uF电容；
 2、包15中去掉了33nf电容；
 3、boot开关换为跳线帽，去掉了立式开关；
 4、包18中增加了一个电池母线；
 5、包19中增加一个红色二极管；
 6、包19中增加了二极管1N4148；
+7、包20中HT7750SA换为XT1861B502MR-G，丝印为AXMD
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配货数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色</t>
-  </si>
-  <si>
-    <t>绿色</t>
-  </si>
-  <si>
-    <t>4.7uH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C3, C4, C7, C8, C10, C11,
- C12, C13,C14, C15, C16, C17, 
-C23, C33, C35, C36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1, P2, P3, P4, P5, P6,
- P7, P8, P9, P10, P11, P12,
- P13, P14, P15, P16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQFP-48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QFN-24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGA-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT-23-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOD-123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3225_4P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FBM320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STM32F103C8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QTY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoboFly开源四轴BOM表-小马哥(交流群：829018006)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丝印50SA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丝印662K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -609,15 +619,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -666,16 +667,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -994,15 +995,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CC6461-41B3-43F3-9727-A64ACB174963}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.375" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="7" customWidth="1"/>
     <col min="4" max="4" width="22.75" style="7" customWidth="1"/>
     <col min="5" max="5" width="9" style="7" customWidth="1"/>
     <col min="6" max="6" width="8.375" style="7" customWidth="1"/>
@@ -1013,7 +1014,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -1025,10 +1026,10 @@
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
@@ -1043,10 +1044,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1054,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1072,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>51</v>
@@ -1096,7 +1097,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1114,7 +1115,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1132,7 +1133,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1150,7 +1151,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1168,16 +1169,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>5</v>
@@ -1194,16 +1195,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
@@ -1220,16 +1221,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>5</v>
@@ -1246,16 +1247,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>5</v>
@@ -1272,7 +1273,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>57</v>
@@ -1296,7 +1297,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>57</v>
@@ -1320,7 +1321,7 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>57</v>
@@ -1344,7 +1345,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>57</v>
@@ -1368,7 +1369,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>57</v>
@@ -1392,7 +1393,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>57</v>
@@ -1414,11 +1415,11 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
+      <c r="A19" s="12">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>8</v>
@@ -1440,9 +1441,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
@@ -1464,9 +1465,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
@@ -1488,9 +1489,9 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
@@ -1516,7 +1517,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>8</v>
@@ -1540,7 +1541,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>8</v>
@@ -1564,7 +1565,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>8</v>
@@ -1586,17 +1587,17 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="14">
+      <c r="A26" s="12">
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>8</v>
@@ -1612,9 +1613,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>8</v>
@@ -1636,9 +1637,9 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
@@ -1660,9 +1661,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
@@ -1684,9 +1685,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
@@ -1704,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1712,7 +1713,7 @@
         <v>17</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>39</v>
@@ -1736,7 +1737,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>41</v>
@@ -1748,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G32" s="11">
         <v>1</v>
@@ -1760,7 +1761,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>41</v>
@@ -1784,7 +1785,7 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>41</v>
@@ -1808,7 +1809,7 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>41</v>
@@ -1830,11 +1831,11 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="14">
+      <c r="A36" s="12">
         <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>70</v>
@@ -1854,9 +1855,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>6</v>
@@ -1876,9 +1877,9 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>72</v>
@@ -1898,9 +1899,9 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>4</v>
@@ -1920,15 +1921,15 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
@@ -1946,7 +1947,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>55</v>
@@ -1955,7 +1956,7 @@
         <v>56</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>5</v>
@@ -1970,7 +1971,7 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="B42" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>37</v>
@@ -1979,7 +1980,7 @@
         <v>38</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>5</v>
@@ -1994,10 +1995,10 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="B43" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>34</v>
@@ -2018,10 +2019,10 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="13"/>
       <c r="B44" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>36</v>
@@ -2042,7 +2043,7 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
       <c r="B45" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>32</v>
@@ -2064,20 +2065,20 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="14">
+      <c r="A46" s="12">
         <v>20</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>141</v>
@@ -2090,21 +2091,21 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="14"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G47" s="3">
         <v>1</v>
@@ -2118,19 +2119,19 @@
         <v>21</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C48" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="E48" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="G48" s="11">
         <v>1</v>
@@ -2142,19 +2143,19 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="13"/>
       <c r="B49" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D49" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="G49" s="11">
         <v>1</v>
@@ -2168,7 +2169,7 @@
         <v>22</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2186,7 +2187,7 @@
         <v>23</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -2204,7 +2205,7 @@
         <v>24</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2218,124 +2219,119 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
+      <c r="A54" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
     <mergeCell ref="A54:H64"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="A4:A5"/>
@@ -2343,9 +2339,27 @@
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DBD0C4-38BD-47CA-9A27-2DFADF480E6A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>